--- a/stock_predictor_ai/data/cleaned/HLT.xlsx
+++ b/stock_predictor_ai/data/cleaned/HLT.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2904"/>
+  <dimension ref="A1:F2905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58529,6 +58529,26 @@
         <v>102602</v>
       </c>
     </row>
+    <row r="2905">
+      <c r="A2905" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B2905" t="n">
+        <v>273.8800048828125</v>
+      </c>
+      <c r="C2905" t="n">
+        <v>274.5599975585938</v>
+      </c>
+      <c r="D2905" t="n">
+        <v>272</v>
+      </c>
+      <c r="E2905" t="n">
+        <v>274.5599975585938</v>
+      </c>
+      <c r="F2905" t="n">
+        <v>46998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HLT.xlsx
+++ b/stock_predictor_ai/data/cleaned/HLT.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2905"/>
+  <dimension ref="A1:F2906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58549,6 +58549,26 @@
         <v>46998</v>
       </c>
     </row>
+    <row r="2906">
+      <c r="A2906" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B2906" t="n">
+        <v>274.3399963378906</v>
+      </c>
+      <c r="C2906" t="n">
+        <v>279.4599914550781</v>
+      </c>
+      <c r="D2906" t="n">
+        <v>273.5499877929688</v>
+      </c>
+      <c r="E2906" t="n">
+        <v>278.6499938964844</v>
+      </c>
+      <c r="F2906" t="n">
+        <v>1756300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HLT.xlsx
+++ b/stock_predictor_ai/data/cleaned/HLT.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2906"/>
+  <dimension ref="A1:F2907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58569,6 +58569,26 @@
         <v>1756300</v>
       </c>
     </row>
+    <row r="2907">
+      <c r="A2907" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B2907" t="n">
+        <v>272.5899963378906</v>
+      </c>
+      <c r="C2907" t="n">
+        <v>273.9849853515625</v>
+      </c>
+      <c r="D2907" t="n">
+        <v>271.6849975585938</v>
+      </c>
+      <c r="E2907" t="n">
+        <v>273.8500061035156</v>
+      </c>
+      <c r="F2907" t="n">
+        <v>178795</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HLT.xlsx
+++ b/stock_predictor_ai/data/cleaned/HLT.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2907"/>
+  <dimension ref="A1:F2908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58589,6 +58589,26 @@
         <v>178795</v>
       </c>
     </row>
+    <row r="2908">
+      <c r="A2908" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B2908" t="n">
+        <v>274.739990234375</v>
+      </c>
+      <c r="C2908" t="n">
+        <v>274.739990234375</v>
+      </c>
+      <c r="D2908" t="n">
+        <v>271.0599975585938</v>
+      </c>
+      <c r="E2908" t="n">
+        <v>273.1000061035156</v>
+      </c>
+      <c r="F2908" t="n">
+        <v>735541</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/HLT.xlsx
+++ b/stock_predictor_ai/data/cleaned/HLT.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2908"/>
+  <dimension ref="A1:F2903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58509,106 +58511,6 @@
         <v>8694700</v>
       </c>
     </row>
-    <row r="2904">
-      <c r="A2904" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B2904" t="n">
-        <v>272.9800109863281</v>
-      </c>
-      <c r="C2904" t="n">
-        <v>273.8839111328125</v>
-      </c>
-      <c r="D2904" t="n">
-        <v>271.3200073242188</v>
-      </c>
-      <c r="E2904" t="n">
-        <v>271.3200073242188</v>
-      </c>
-      <c r="F2904" t="n">
-        <v>102602</v>
-      </c>
-    </row>
-    <row r="2905">
-      <c r="A2905" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B2905" t="n">
-        <v>273.8800048828125</v>
-      </c>
-      <c r="C2905" t="n">
-        <v>274.5599975585938</v>
-      </c>
-      <c r="D2905" t="n">
-        <v>272</v>
-      </c>
-      <c r="E2905" t="n">
-        <v>274.5599975585938</v>
-      </c>
-      <c r="F2905" t="n">
-        <v>46998</v>
-      </c>
-    </row>
-    <row r="2906">
-      <c r="A2906" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B2906" t="n">
-        <v>274.3399963378906</v>
-      </c>
-      <c r="C2906" t="n">
-        <v>279.4599914550781</v>
-      </c>
-      <c r="D2906" t="n">
-        <v>273.5499877929688</v>
-      </c>
-      <c r="E2906" t="n">
-        <v>278.6499938964844</v>
-      </c>
-      <c r="F2906" t="n">
-        <v>1756300</v>
-      </c>
-    </row>
-    <row r="2907">
-      <c r="A2907" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B2907" t="n">
-        <v>272.5899963378906</v>
-      </c>
-      <c r="C2907" t="n">
-        <v>273.9849853515625</v>
-      </c>
-      <c r="D2907" t="n">
-        <v>271.6849975585938</v>
-      </c>
-      <c r="E2907" t="n">
-        <v>273.8500061035156</v>
-      </c>
-      <c r="F2907" t="n">
-        <v>178795</v>
-      </c>
-    </row>
-    <row r="2908">
-      <c r="A2908" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B2908" t="n">
-        <v>274.739990234375</v>
-      </c>
-      <c r="C2908" t="n">
-        <v>274.739990234375</v>
-      </c>
-      <c r="D2908" t="n">
-        <v>271.0599975585938</v>
-      </c>
-      <c r="E2908" t="n">
-        <v>273.1000061035156</v>
-      </c>
-      <c r="F2908" t="n">
-        <v>735541</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
